--- a/results/min_var_portfolio/min_var_2017.xlsx
+++ b/results/min_var_portfolio/min_var_2017.xlsx
@@ -531,7 +531,7 @@
         <v>-0.001147362118578037</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05574266518239693</v>
+        <v>0.07323693434389701</v>
       </c>
     </row>
     <row r="3">
@@ -623,7 +623,7 @@
         <v>0.2656978703008456</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1828706093302988</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +669,7 @@
         <v>-0.05721932708285705</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001000000000000004</v>
+        <v>0.01308124912754755</v>
       </c>
     </row>
     <row r="6">
@@ -715,7 +715,7 @@
         <v>0.004214704650876119</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2196752397841173</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -807,7 +807,7 @@
         <v>0.02745873065337421</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001000000000000004</v>
+        <v>0.02888365594205327</v>
       </c>
     </row>
     <row r="9">
@@ -853,7 +853,7 @@
         <v>0.04224653057978167</v>
       </c>
       <c r="N9" t="n">
-        <v>0.123129449994358</v>
+        <v>0.1339952185821673</v>
       </c>
     </row>
     <row r="10">
@@ -899,7 +899,7 @@
         <v>-0.04550906865368211</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001000000000000002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="11">
@@ -945,7 +945,7 @@
         <v>0.1681712502219955</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001000000000000008</v>
+        <v>0.001000000000000004</v>
       </c>
     </row>
     <row r="12">
@@ -1037,7 +1037,7 @@
         <v>0.0142673385217417</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01976812628642212</v>
+        <v>0.07749950594290932</v>
       </c>
     </row>
     <row r="14">
@@ -1083,7 +1083,7 @@
         <v>-0.008216262437151487</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02238184323170027</v>
+        <v>0.02112075605989106</v>
       </c>
     </row>
     <row r="15">
@@ -1175,7 +1175,7 @@
         <v>-0.01005350994781324</v>
       </c>
       <c r="N16" t="n">
-        <v>0.003193151872570161</v>
+        <v>0.07162963062725217</v>
       </c>
     </row>
     <row r="17">
@@ -1267,7 +1267,7 @@
         <v>0.03642762429933691</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06175650541344251</v>
+        <v>0.1215530493742824</v>
       </c>
     </row>
     <row r="19">
@@ -1313,7 +1313,7 @@
         <v>-0.003317020961312652</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3004824089046938</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20">
@@ -1405,7 +1405,7 @@
         <v>0.005488571853862326</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001</v>
+        <v>0.001000000000000003</v>
       </c>
     </row>
     <row r="22">
@@ -1415,40 +1415,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02818212827107194</v>
+        <v>0.02357576643139591</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01063647527455541</v>
+        <v>0.01150552964432216</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01733244011670631</v>
+        <v>0.03118283146648781</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01519893020333978</v>
+        <v>0.009966260796215824</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02587501680286911</v>
+        <v>0.02337872376822408</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03556157878282247</v>
+        <v>0.04515511399120602</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.03135041504867327</v>
+        <v>-0.0275653957990564</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01575407725708505</v>
+        <v>-0.03463897594308467</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.04128997062858576</v>
+        <v>-0.05320659953165616</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.006184923477806976</v>
+        <v>-0.004613049717445137</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.01946496837990502</v>
+        <v>-0.02494715557932752</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05635772327633336</v>
+        <v>0.05066715652309046</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1459,43 +1459,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.028583001406748</v>
+        <v>1.023855871713618</v>
       </c>
       <c r="C23" t="n">
-        <v>1.010693243671042</v>
+        <v>1.011571972827349</v>
       </c>
       <c r="D23" t="n">
-        <v>1.017483518446766</v>
+        <v>1.031674109134821</v>
       </c>
       <c r="E23" t="n">
-        <v>1.015315021351057</v>
+        <v>1.010016089370629</v>
       </c>
       <c r="F23" t="n">
-        <v>1.026212681116155</v>
+        <v>1.023654148300663</v>
       </c>
       <c r="G23" t="n">
-        <v>1.036201454187803</v>
+        <v>1.046190126049529</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9691359137602423</v>
+        <v>0.9728110627164643</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9843693691066741</v>
+        <v>0.9659540859776146</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9595508480403927</v>
+        <v>0.9481840978545193</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9938341637900356</v>
+        <v>0.9953975740541292</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9807232509112386</v>
+        <v>0.9753614530774264</v>
       </c>
       <c r="M23" t="n">
-        <v>1.057976078721392</v>
+        <v>1.051972692756786</v>
       </c>
       <c r="N23" t="n">
-        <v>1.215290864597779</v>
+        <v>1.125459007789521</v>
       </c>
     </row>
   </sheetData>
